--- a/airpods1.xlsx
+++ b/airpods1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="466" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{42412A0B-F1F1-5140-BD06-B95507691F79}"/>
+  <xr:revisionPtr revIDLastSave="492" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B187929B-431A-FE46-B439-8FE2135DC09D}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="460" windowWidth="28460" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3602,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="E494" sqref="E494"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3680,7 +3680,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
@@ -3696,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -3768,7 +3768,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -3920,7 +3920,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -4064,7 +4064,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -4144,7 +4144,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -4184,7 +4184,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -4504,7 +4504,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -4552,7 +4552,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -4560,7 +4560,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -4568,7 +4568,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -4576,7 +4576,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -4712,7 +4712,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">

--- a/airpods1.xlsx
+++ b/airpods1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="492" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{B187929B-431A-FE46-B439-8FE2135DC09D}"/>
+  <xr:revisionPtr revIDLastSave="584" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3E2E5484-02B9-D345-A9FF-77FCD649FDA1}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="460" windowWidth="28460" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3602,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B139" sqref="B139"/>
+    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="B502" sqref="B502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4776,7 +4776,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -4800,7 +4800,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -4808,7 +4808,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -4824,7 +4824,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -5056,7 +5056,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -5184,7 +5184,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -5215,6 +5215,9 @@
       <c r="A201" t="s">
         <v>200</v>
       </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -5269,7 +5272,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -5461,7 +5464,7 @@
         <v>229</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -5565,7 +5568,7 @@
         <v>242</v>
       </c>
       <c r="B245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -5781,7 +5784,7 @@
         <v>269</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -5789,7 +5792,7 @@
         <v>270</v>
       </c>
       <c r="B273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -5821,7 +5824,7 @@
         <v>274</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -5853,7 +5856,7 @@
         <v>278</v>
       </c>
       <c r="B281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -5885,7 +5888,7 @@
         <v>282</v>
       </c>
       <c r="B285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -6013,7 +6016,7 @@
         <v>298</v>
       </c>
       <c r="B301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
@@ -6037,7 +6040,7 @@
         <v>301</v>
       </c>
       <c r="B304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
@@ -6109,7 +6112,7 @@
         <v>310</v>
       </c>
       <c r="B313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
@@ -6117,7 +6120,7 @@
         <v>311</v>
       </c>
       <c r="B314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -6125,7 +6128,7 @@
         <v>312</v>
       </c>
       <c r="B315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -6181,7 +6184,7 @@
         <v>319</v>
       </c>
       <c r="B322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -6189,7 +6192,7 @@
         <v>320</v>
       </c>
       <c r="B323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -6213,7 +6216,7 @@
         <v>323</v>
       </c>
       <c r="B326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -6277,7 +6280,7 @@
         <v>331</v>
       </c>
       <c r="B334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -6293,7 +6296,7 @@
         <v>333</v>
       </c>
       <c r="B336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
@@ -6357,7 +6360,7 @@
         <v>341</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
@@ -6469,7 +6472,7 @@
         <v>355</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
@@ -6477,7 +6480,7 @@
         <v>356</v>
       </c>
       <c r="B359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
@@ -6485,7 +6488,7 @@
         <v>357</v>
       </c>
       <c r="B360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
@@ -6493,7 +6496,7 @@
         <v>358</v>
       </c>
       <c r="B361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
@@ -6501,7 +6504,7 @@
         <v>359</v>
       </c>
       <c r="B362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
@@ -6565,7 +6568,7 @@
         <v>367</v>
       </c>
       <c r="B370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -6573,7 +6576,7 @@
         <v>368</v>
       </c>
       <c r="B371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
@@ -6581,7 +6584,7 @@
         <v>369</v>
       </c>
       <c r="B372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -6645,7 +6648,7 @@
         <v>377</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
@@ -6653,7 +6656,7 @@
         <v>378</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
@@ -6661,7 +6664,7 @@
         <v>379</v>
       </c>
       <c r="B382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
@@ -6669,7 +6672,7 @@
         <v>380</v>
       </c>
       <c r="B383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
@@ -6677,7 +6680,7 @@
         <v>381</v>
       </c>
       <c r="B384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
@@ -6741,7 +6744,7 @@
         <v>389</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
@@ -6749,7 +6752,7 @@
         <v>390</v>
       </c>
       <c r="B393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
@@ -6869,7 +6872,7 @@
         <v>405</v>
       </c>
       <c r="B408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
@@ -6901,7 +6904,7 @@
         <v>409</v>
       </c>
       <c r="B412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
@@ -7012,13 +7015,16 @@
       <c r="A426" t="s">
         <v>423</v>
       </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>424</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
@@ -7362,7 +7368,7 @@
         <v>467</v>
       </c>
       <c r="B470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
@@ -7506,7 +7512,7 @@
         <v>485</v>
       </c>
       <c r="B488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">

--- a/airpods1.xlsx
+++ b/airpods1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="584" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3E2E5484-02B9-D345-A9FF-77FCD649FDA1}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0CD7B986-E9F9-0D46-8989-027A6ABBBE18}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="460" windowWidth="28460" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3602,8 +3602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q750"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="B502" sqref="B502"/>
+    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
+      <selection activeCell="A749" sqref="A749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7623,1245 +7623,1992 @@
       <c r="A502" t="s">
         <v>749</v>
       </c>
+      <c r="B502">
+        <v>3</v>
+      </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>750</v>
       </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>751</v>
       </c>
+      <c r="B504">
+        <v>1</v>
+      </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>752</v>
       </c>
+      <c r="B505">
+        <v>1</v>
+      </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>753</v>
       </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>754</v>
       </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>755</v>
       </c>
+      <c r="B508">
+        <v>1</v>
+      </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>756</v>
       </c>
+      <c r="B509">
+        <v>3</v>
+      </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>757</v>
       </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>758</v>
       </c>
+      <c r="B511">
+        <v>3</v>
+      </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B515">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B522">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B524">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B526">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B527">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B529">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B530">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B532">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B534">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B535">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B536">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B537">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B539">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B542">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B543">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B546">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B549">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B551">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B553">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B554">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B555">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B556">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B557">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B558">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B559">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B560">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B561">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B562">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B564">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B565">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B566">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B567">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B568">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B569">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B571">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B573">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B574">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B575">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B576">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B577">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B578">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B579">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B581">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B582">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B584">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B585">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B586">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B587">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B588">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B589">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B590">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B593">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B595">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B596">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B597">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B600">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B601">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B602">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B603">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B604">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B605">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B606">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B607">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B608">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B614">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B615">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B616">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B617">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B618">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B619">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B620">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B621">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B622">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B623">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B624">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B625">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B627">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B628">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B629">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B630">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B631">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B632">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B633">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>880</v>
       </c>
-    </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B634">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>882</v>
       </c>
-    </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>884</v>
       </c>
-    </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B638">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B639">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>886</v>
       </c>
-    </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B641">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B642">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B643">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B646">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B647">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>894</v>
       </c>
-    </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B649">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>896</v>
       </c>
-    </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B650">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B653">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>900</v>
       </c>
-    </row>
-    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B654">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B656">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B657">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>904</v>
       </c>
-    </row>
-    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B658">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>906</v>
       </c>
-    </row>
-    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B660">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B661">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B662">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B663">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B664">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B665">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B666">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B667">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B668">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B669">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B670">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B671">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B672">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B673">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B674">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B676">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B677">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B679">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B681">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B682">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B684">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B685">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B686">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B687">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B688">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B691">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B692">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B693">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B695">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B697">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B698">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B699">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B700">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B702">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B703">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B704">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B706">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B707">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B708">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B709">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B710">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B711">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B712">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B713">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B716">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>963</v>
       </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B717">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B720">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>967</v>
       </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B721">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B722">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>969</v>
       </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B723">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B725">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>971</v>
       </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B727">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B728">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B729">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B731">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>977</v>
       </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B732">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B733">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B734">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B735">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B736">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B737">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B738">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B739">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B740">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B741">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B742">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B744">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B747">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B748">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>995</v>
+      </c>
+      <c r="B750">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/airpods1.xlsx
+++ b/airpods1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="725" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{0CD7B986-E9F9-0D46-8989-027A6ABBBE18}"/>
+  <xr:revisionPtr revIDLastSave="726" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6BEDA404-6C1F-1A45-8C5D-FED27AFCBBA0}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="460" windowWidth="28460" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="997">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3198,6 +3198,9 @@
   </si>
   <si>
     <t>o maior problema do airpods é que tem que carregar essa merda que raiva</t>
+  </si>
+  <si>
+    <t>kkk</t>
   </si>
 </sst>
 </file>
@@ -3600,10 +3603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q750"/>
+  <dimension ref="A1:Q763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A643" workbookViewId="0">
-      <selection activeCell="A749" sqref="A749"/>
+    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
+      <selection activeCell="A764" sqref="A764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9609,6 +9612,11 @@
       </c>
       <c r="B750">
         <v>2</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A763" t="s">
+        <v>996</v>
       </c>
     </row>
   </sheetData>

--- a/airpods1.xlsx
+++ b/airpods1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="726" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6BEDA404-6C1F-1A45-8C5D-FED27AFCBBA0}"/>
+  <xr:revisionPtr revIDLastSave="731" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2790AED1-A8E9-6343-ADB1-9B7A12DFBBE3}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="460" windowWidth="28460" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="997">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3232,7 +3232,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3255,16 +3255,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3605,8 +3619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A740" workbookViewId="0">
-      <selection activeCell="A764" sqref="A764"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3617,6 +3631,9 @@
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>748</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>747</v>

--- a/airpods1.xlsx
+++ b/airpods1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="731" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{2790AED1-A8E9-6343-ADB1-9B7A12DFBBE3}"/>
+  <xr:revisionPtr revIDLastSave="755" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{983F6857-D9BD-D740-83A2-E6FDD6610496}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="460" windowWidth="28460" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="997">
   <si>
     <t>Treinamento</t>
   </si>
@@ -3619,13 +3619,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q763"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C250" sqref="C250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="122.5" customWidth="1"/>
+    <col min="3" max="3" width="111.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -3635,6 +3636,12 @@
       <c r="B1" s="3" t="s">
         <v>748</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>748</v>
+      </c>
       <c r="Q1" s="2" t="s">
         <v>747</v>
       </c>
@@ -3646,6 +3653,12 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>500</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -3654,6 +3667,12 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3661,6 +3680,12 @@
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>502</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -3670,6 +3695,12 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3678,6 +3709,12 @@
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3686,6 +3723,12 @@
       <c r="B7">
         <v>1</v>
       </c>
+      <c r="C7" t="s">
+        <v>505</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3694,6 +3737,12 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>506</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -3702,6 +3751,12 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -3710,6 +3765,12 @@
       <c r="B10">
         <v>3</v>
       </c>
+      <c r="C10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -3718,6 +3779,12 @@
       <c r="B11">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>509</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -3726,6 +3793,12 @@
       <c r="B12">
         <v>2</v>
       </c>
+      <c r="C12" t="s">
+        <v>510</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -3734,6 +3807,12 @@
       <c r="B13">
         <v>2</v>
       </c>
+      <c r="C13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -3742,6 +3821,12 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>512</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -3750,6 +3835,12 @@
       <c r="B15">
         <v>3</v>
       </c>
+      <c r="C15" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -3758,1880 +3849,3290 @@
       <c r="B16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>514</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>515</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>517</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>521</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>522</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>524</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>525</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>526</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>527</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>528</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>529</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>531</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>532</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>533</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>534</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>535</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>537</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>538</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>539</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>540</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>541</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>542</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>543</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>544</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>545</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>546</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>547</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>548</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>549</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>550</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>551</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>552</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>553</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>554</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>555</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>556</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>557</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>558</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>559</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>560</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>561</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>562</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>563</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>564</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>565</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>566</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>567</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>568</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>569</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>570</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>571</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>572</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>573</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>574</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>575</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>576</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>577</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>578</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>579</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>580</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>581</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>582</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>583</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>584</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>585</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>586</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>2</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>587</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>588</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>589</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>590</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>591</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>592</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>593</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>594</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>595</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>596</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>597</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>100</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>598</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>101</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>599</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
       <c r="B103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>600</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>103</v>
       </c>
       <c r="B104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>601</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>602</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>105</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>603</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>106</v>
       </c>
       <c r="B107">
         <v>2</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>604</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>107</v>
       </c>
       <c r="B108">
         <v>3</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>605</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>108</v>
       </c>
       <c r="B109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>606</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>109</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>607</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>110</v>
       </c>
       <c r="B111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>608</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>111</v>
       </c>
       <c r="B112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>609</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
       <c r="B113">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>610</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>113</v>
       </c>
       <c r="B114">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>611</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>114</v>
       </c>
       <c r="B115">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>612</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>115</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>613</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>116</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>614</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>117</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>615</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>118</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>616</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>119</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>617</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>618</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>121</v>
       </c>
       <c r="B122">
         <v>3</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>619</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>122</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>620</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>123</v>
       </c>
       <c r="B124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>621</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>124</v>
       </c>
       <c r="B125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>622</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>125</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>623</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>126</v>
       </c>
       <c r="B127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>624</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>127</v>
       </c>
       <c r="B128">
         <v>3</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>625</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>626</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>129</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>627</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>130</v>
       </c>
       <c r="B131">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>628</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>131</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>629</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>132</v>
       </c>
       <c r="B133">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C133" t="s">
+        <v>630</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>133</v>
       </c>
       <c r="B134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>631</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>134</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>632</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>135</v>
       </c>
       <c r="B136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>633</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>136</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>634</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>137</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>635</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>138</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>636</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>139</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>637</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>140</v>
       </c>
       <c r="B141">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>638</v>
+      </c>
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>141</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>639</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>142</v>
       </c>
       <c r="B143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>640</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>143</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>641</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>144</v>
       </c>
       <c r="B145">
         <v>3</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>642</v>
+      </c>
+      <c r="D145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>145</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>643</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>146</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>644</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>147</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>645</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>148</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>646</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>149</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>647</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>150</v>
       </c>
       <c r="B151">
         <v>3</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>648</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>151</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>649</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>152</v>
       </c>
       <c r="B153">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>650</v>
+      </c>
+      <c r="D153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>153</v>
       </c>
       <c r="B154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C154" t="s">
+        <v>651</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>154</v>
       </c>
       <c r="B155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
+        <v>652</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>155</v>
       </c>
       <c r="B156">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>653</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>156</v>
       </c>
       <c r="B157">
         <v>3</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>654</v>
+      </c>
+      <c r="D157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>157</v>
       </c>
       <c r="B158">
         <v>3</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
+        <v>655</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>158</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>656</v>
+      </c>
+      <c r="D159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>159</v>
       </c>
       <c r="B160">
         <v>3</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
+        <v>657</v>
+      </c>
+      <c r="D160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>160</v>
       </c>
       <c r="B161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
+        <v>658</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>161</v>
       </c>
       <c r="B162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>659</v>
+      </c>
+      <c r="D162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>162</v>
       </c>
       <c r="B163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>660</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>163</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>661</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>164</v>
       </c>
       <c r="B165">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>662</v>
+      </c>
+      <c r="D165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>165</v>
       </c>
       <c r="B166">
         <v>3</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>663</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>166</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C167" t="s">
+        <v>664</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>167</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>665</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>168</v>
       </c>
       <c r="B169">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C169" t="s">
+        <v>666</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>169</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C170" t="s">
+        <v>667</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>170</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C171" t="s">
+        <v>668</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
       <c r="B172">
         <v>2</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>669</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>172</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>670</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>173</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>671</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>174</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>672</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>175</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>673</v>
+      </c>
+      <c r="D176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>176</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C177" t="s">
+        <v>674</v>
+      </c>
+      <c r="D177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>177</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>675</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>178</v>
       </c>
       <c r="B179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>676</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>179</v>
       </c>
       <c r="B180">
         <v>3</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C180" t="s">
+        <v>677</v>
+      </c>
+      <c r="D180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>180</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>678</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>181</v>
       </c>
       <c r="B182">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>679</v>
+      </c>
+      <c r="D182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>182</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
+        <v>680</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>183</v>
       </c>
       <c r="B184">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C184" t="s">
+        <v>681</v>
+      </c>
+      <c r="D184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>184</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>682</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>185</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C186" t="s">
+        <v>683</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>186</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C187" t="s">
+        <v>684</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>187</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C188" t="s">
+        <v>685</v>
+      </c>
+      <c r="D188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>188</v>
       </c>
       <c r="B189">
         <v>3</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>686</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>189</v>
       </c>
       <c r="B190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
+        <v>687</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>190</v>
       </c>
       <c r="B191">
         <v>3</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
+        <v>688</v>
+      </c>
+      <c r="D191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>191</v>
       </c>
       <c r="B192">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C192" t="s">
+        <v>689</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>192</v>
       </c>
       <c r="B193">
         <v>3</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>690</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>193</v>
       </c>
       <c r="B194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
+        <v>691</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>194</v>
       </c>
       <c r="B195">
         <v>3</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C195" t="s">
+        <v>692</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>195</v>
       </c>
       <c r="B196">
         <v>2</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C196" t="s">
+        <v>693</v>
+      </c>
+      <c r="D196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>196</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C197" t="s">
+        <v>694</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>197</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C198" t="s">
+        <v>695</v>
+      </c>
+      <c r="D198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>198</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
+        <v>696</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>199</v>
       </c>
       <c r="B200">
         <v>3</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C200" t="s">
+        <v>697</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>200</v>
       </c>
       <c r="B201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C201" t="s">
+        <v>457</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>201</v>
       </c>
       <c r="B202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>698</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>202</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C203" t="s">
+        <v>699</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>203</v>
       </c>
       <c r="B204">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C204" t="s">
+        <v>700</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>204</v>
       </c>
       <c r="B205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C205" t="s">
+        <v>701</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>205</v>
       </c>
       <c r="B206">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
+        <v>702</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>206</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
+        <v>703</v>
+      </c>
+      <c r="D207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>207</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C208" t="s">
+        <v>704</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>208</v>
       </c>
       <c r="B209">
         <v>2</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C209" t="s">
+        <v>705</v>
+      </c>
+      <c r="D209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>209</v>
       </c>
       <c r="B210">
         <v>2</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C210" t="s">
+        <v>706</v>
+      </c>
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>210</v>
       </c>
       <c r="B211">
         <v>2</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
+        <v>707</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212">
         <v>2</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C212" t="s">
+        <v>708</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>3</v>
       </c>
       <c r="B213">
         <v>3</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
+        <v>709</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>212</v>
       </c>
       <c r="B214">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214" t="s">
+        <v>710</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>213</v>
       </c>
       <c r="B215">
         <v>1</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C215" t="s">
+        <v>711</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>214</v>
       </c>
       <c r="B216">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
+        <v>712</v>
+      </c>
+      <c r="D216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>215</v>
       </c>
       <c r="B217">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217" t="s">
+        <v>713</v>
+      </c>
+      <c r="D217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>216</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
+        <v>714</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>217</v>
       </c>
       <c r="B219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C219" t="s">
+        <v>715</v>
+      </c>
+      <c r="D219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>218</v>
       </c>
       <c r="B220">
         <v>2</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C220" t="s">
+        <v>716</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>219</v>
       </c>
       <c r="B221">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C221" t="s">
+        <v>717</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>220</v>
       </c>
       <c r="B222">
         <v>2</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C222" t="s">
+        <v>718</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>14</v>
       </c>
       <c r="B223">
         <v>3</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C223" t="s">
+        <v>719</v>
+      </c>
+      <c r="D223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>221</v>
       </c>
       <c r="B224">
         <v>2</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C224" t="s">
+        <v>720</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>222</v>
       </c>
       <c r="B225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C225" t="s">
+        <v>721</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>223</v>
       </c>
       <c r="B226">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C226" t="s">
+        <v>722</v>
+      </c>
+      <c r="D226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>224</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C227" t="s">
+        <v>723</v>
+      </c>
+      <c r="D227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>225</v>
       </c>
       <c r="B228">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228" t="s">
+        <v>724</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>226</v>
       </c>
       <c r="B229">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C229" t="s">
+        <v>725</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>227</v>
       </c>
       <c r="B230">
         <v>2</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C230" t="s">
+        <v>726</v>
+      </c>
+      <c r="D230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>228</v>
       </c>
       <c r="B231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231" t="s">
+        <v>727</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>229</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C232" t="s">
+        <v>728</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>230</v>
       </c>
       <c r="B233">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233" t="s">
+        <v>729</v>
+      </c>
+      <c r="D233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>231</v>
       </c>
       <c r="B234">
         <v>2</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234" t="s">
+        <v>730</v>
+      </c>
+      <c r="D234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>232</v>
       </c>
       <c r="B235">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C235" t="s">
+        <v>731</v>
+      </c>
+      <c r="D235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>233</v>
       </c>
       <c r="B236">
         <v>3</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C236" t="s">
+        <v>732</v>
+      </c>
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>234</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237" t="s">
+        <v>733</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>235</v>
       </c>
       <c r="B238">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C238" t="s">
+        <v>734</v>
+      </c>
+      <c r="D238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>236</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239" t="s">
+        <v>735</v>
+      </c>
+      <c r="D239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>237</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240" t="s">
+        <v>736</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>238</v>
       </c>
       <c r="B241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241" t="s">
+        <v>737</v>
+      </c>
+      <c r="D241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>239</v>
       </c>
       <c r="B242">
         <v>2</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C242" t="s">
+        <v>738</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>240</v>
       </c>
       <c r="B243">
         <v>3</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C243" t="s">
+        <v>739</v>
+      </c>
+      <c r="D243">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>241</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C244" t="s">
+        <v>740</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>242</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245" t="s">
+        <v>741</v>
+      </c>
+      <c r="D245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>243</v>
       </c>
       <c r="B246">
         <v>3</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246" t="s">
+        <v>742</v>
+      </c>
+      <c r="D246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>244</v>
       </c>
       <c r="B247">
         <v>3</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C247" t="s">
+        <v>743</v>
+      </c>
+      <c r="D247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>245</v>
       </c>
       <c r="B248">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248" t="s">
+        <v>744</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>246</v>
       </c>
       <c r="B249">
         <v>1</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C249" t="s">
+        <v>745</v>
+      </c>
+      <c r="D249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>247</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250" t="s">
+        <v>746</v>
+      </c>
+      <c r="D250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>248</v>
       </c>
@@ -5639,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>249</v>
       </c>
@@ -5647,7 +7148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>250</v>
       </c>
@@ -5655,7 +7156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>251</v>
       </c>
@@ -5663,7 +7164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>252</v>
       </c>
@@ -5671,7 +7172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>253</v>
       </c>
@@ -9645,8 +11146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView topLeftCell="A569" workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+    <sheetView topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/airpods1.xlsx
+++ b/airpods1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/digomattar/OneDrive - Insper - Institudo de Ensino e Pesquisa/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/rodrigosm11_al_insper_edu_br/Documents/2 SEM/Ciencia dos Dados/Projeto2/Projeto-2-Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{983F6857-D9BD-D740-83A2-E6FDD6610496}"/>
+  <xr:revisionPtr revIDLastSave="761" documentId="11_2C22B21F495390C88626194E8318E845E12F8AB5" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{E454D3D3-2C65-6349-AA46-B021C1BF0503}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="460" windowWidth="28460" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3619,8 +3619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="C250" sqref="C250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4077,7 +4077,7 @@
         <v>530</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -4091,7 +4091,7 @@
         <v>531</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
